--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220505_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220505_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="254">
   <si>
     <t>사이트</t>
   </si>
@@ -676,6 +676,9 @@
     <t>Savage - The 1st Mini Album</t>
   </si>
   <si>
+    <t>P NATION</t>
+  </si>
+  <si>
     <t>YG</t>
   </si>
   <si>
@@ -703,9 +706,6 @@
     <t>스윙</t>
   </si>
   <si>
-    <t>P NATION</t>
-  </si>
-  <si>
     <t>MBC</t>
   </si>
   <si>
@@ -767,6 +767,9 @@
   </si>
   <si>
     <t>BRAVE</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>생각</t>
@@ -1181,6 +1184,12 @@
       <c r="F2" t="s">
         <v>170</v>
       </c>
+      <c r="G2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -1202,10 +1211,10 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1228,10 +1237,10 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1254,7 +1263,7 @@
         <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H5" t="s">
         <v>232</v>
@@ -1280,7 +1289,7 @@
         <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
         <v>232</v>
@@ -1306,7 +1315,7 @@
         <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
         <v>232</v>
@@ -1332,10 +1341,10 @@
         <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1358,7 +1367,7 @@
         <v>175</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H9" t="s">
         <v>232</v>
@@ -1384,7 +1393,7 @@
         <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H10" t="s">
         <v>232</v>
@@ -1410,7 +1419,7 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H11" t="s">
         <v>232</v>
@@ -1436,7 +1445,7 @@
         <v>176</v>
       </c>
       <c r="G12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H12" t="s">
         <v>232</v>
@@ -1462,7 +1471,7 @@
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H13" t="s">
         <v>232</v>
@@ -1488,10 +1497,10 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1514,7 +1523,7 @@
         <v>177</v>
       </c>
       <c r="G15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H15" t="s">
         <v>232</v>
@@ -1540,7 +1549,7 @@
         <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H16" t="s">
         <v>232</v>
@@ -1566,7 +1575,7 @@
         <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H17" t="s">
         <v>232</v>
@@ -1592,10 +1601,10 @@
         <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1644,7 +1653,7 @@
         <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H20" t="s">
         <v>232</v>
@@ -1669,6 +1678,12 @@
       <c r="F21" t="s">
         <v>170</v>
       </c>
+      <c r="G21" t="s">
+        <v>220</v>
+      </c>
+      <c r="H21" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
@@ -1690,7 +1705,7 @@
         <v>175</v>
       </c>
       <c r="G22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H22" t="s">
         <v>232</v>
@@ -1716,7 +1731,7 @@
         <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H23" t="s">
         <v>232</v>
@@ -1742,7 +1757,7 @@
         <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H24" t="s">
         <v>232</v>
@@ -1794,7 +1809,7 @@
         <v>175</v>
       </c>
       <c r="G26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H26" t="s">
         <v>232</v>
@@ -1846,7 +1861,7 @@
         <v>175</v>
       </c>
       <c r="G28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s">
         <v>232</v>
@@ -1924,7 +1939,7 @@
         <v>175</v>
       </c>
       <c r="G31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H31" t="s">
         <v>232</v>
@@ -1950,7 +1965,7 @@
         <v>175</v>
       </c>
       <c r="G32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H32" t="s">
         <v>232</v>
@@ -1976,7 +1991,7 @@
         <v>175</v>
       </c>
       <c r="G33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H33" t="s">
         <v>232</v>
@@ -2001,6 +2016,12 @@
       <c r="F34" t="s">
         <v>170</v>
       </c>
+      <c r="G34" t="s">
+        <v>220</v>
+      </c>
+      <c r="H34" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
@@ -2022,10 +2043,10 @@
         <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2074,7 +2095,7 @@
         <v>171</v>
       </c>
       <c r="G37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H37" t="s">
         <v>232</v>
@@ -2152,10 +2173,10 @@
         <v>182</v>
       </c>
       <c r="G40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2438,10 +2459,10 @@
         <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2464,10 +2485,10 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2567,6 +2588,12 @@
       <c r="F56" t="s">
         <v>170</v>
       </c>
+      <c r="G56" t="s">
+        <v>220</v>
+      </c>
+      <c r="H56" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
@@ -2692,7 +2719,7 @@
         <v>193</v>
       </c>
       <c r="G61" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H61" t="s">
         <v>232</v>
@@ -2744,10 +2771,10 @@
         <v>194</v>
       </c>
       <c r="G63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2770,7 +2797,7 @@
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H64" t="s">
         <v>232</v>
@@ -2926,10 +2953,10 @@
         <v>198</v>
       </c>
       <c r="G70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2977,6 +3004,12 @@
       <c r="F72" t="s">
         <v>170</v>
       </c>
+      <c r="G72" t="s">
+        <v>220</v>
+      </c>
+      <c r="H72" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
@@ -3232,10 +3265,10 @@
         <v>208</v>
       </c>
       <c r="G82" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H82" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3258,10 +3291,10 @@
         <v>209</v>
       </c>
       <c r="G83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3283,6 +3316,12 @@
       <c r="F84" t="s">
         <v>92</v>
       </c>
+      <c r="G84" t="s">
+        <v>234</v>
+      </c>
+      <c r="H84" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
@@ -3329,6 +3368,12 @@
       <c r="F86" t="s">
         <v>210</v>
       </c>
+      <c r="G86" t="s">
+        <v>251</v>
+      </c>
+      <c r="H86" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
@@ -3376,10 +3421,10 @@
         <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H88" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3454,7 +3499,7 @@
         <v>214</v>
       </c>
       <c r="G91" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H91" t="s">
         <v>232</v>
@@ -3480,7 +3525,7 @@
         <v>215</v>
       </c>
       <c r="G92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H92" t="s">
         <v>232</v>
@@ -3558,7 +3603,7 @@
         <v>217</v>
       </c>
       <c r="G95" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H95" t="s">
         <v>232</v>
@@ -3583,6 +3628,12 @@
       <c r="F96" t="s">
         <v>170</v>
       </c>
+      <c r="G96" t="s">
+        <v>220</v>
+      </c>
+      <c r="H96" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
@@ -3604,7 +3655,7 @@
         <v>105</v>
       </c>
       <c r="G97" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H97" t="s">
         <v>232</v>
@@ -3630,7 +3681,7 @@
         <v>218</v>
       </c>
       <c r="G98" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H98" t="s">
         <v>232</v>
@@ -3656,10 +3707,10 @@
         <v>219</v>
       </c>
       <c r="G99" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H99" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3682,7 +3733,7 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H100" t="s">
         <v>232</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220505_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220505_110201.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-05-05</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220505_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220505_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="253">
   <si>
     <t>사이트</t>
   </si>
@@ -743,9 +743,6 @@
   </si>
   <si>
     <t>SHOFAR</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>YUE HUA</t>
@@ -2407,7 +2404,7 @@
         <v>187</v>
       </c>
       <c r="G49" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H49" t="s">
         <v>232</v>
@@ -2511,7 +2508,7 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H53" t="s">
         <v>232</v>
@@ -2615,7 +2612,7 @@
         <v>190</v>
       </c>
       <c r="G57" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H57" t="s">
         <v>232</v>
@@ -2667,7 +2664,7 @@
         <v>192</v>
       </c>
       <c r="G59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H59" t="s">
         <v>232</v>
@@ -2745,7 +2742,7 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H62" t="s">
         <v>232</v>
@@ -2875,7 +2872,7 @@
         <v>197</v>
       </c>
       <c r="G67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H67" t="s">
         <v>232</v>
@@ -3083,7 +3080,7 @@
         <v>202</v>
       </c>
       <c r="G75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H75" t="s">
         <v>232</v>
@@ -3135,7 +3132,7 @@
         <v>203</v>
       </c>
       <c r="G77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H77" t="s">
         <v>232</v>
@@ -3161,7 +3158,7 @@
         <v>204</v>
       </c>
       <c r="G78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H78" t="s">
         <v>232</v>
@@ -3187,7 +3184,7 @@
         <v>205</v>
       </c>
       <c r="G79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H79" t="s">
         <v>232</v>
@@ -3213,7 +3210,7 @@
         <v>206</v>
       </c>
       <c r="G80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H80" t="s">
         <v>232</v>
@@ -3369,7 +3366,7 @@
         <v>210</v>
       </c>
       <c r="G86" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H86" t="s">
         <v>232</v>
@@ -3551,7 +3548,7 @@
         <v>182</v>
       </c>
       <c r="G93" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H93" t="s">
         <v>232</v>
@@ -3577,7 +3574,7 @@
         <v>216</v>
       </c>
       <c r="G94" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H94" t="s">
         <v>232</v>
@@ -3603,7 +3600,7 @@
         <v>217</v>
       </c>
       <c r="G95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H95" t="s">
         <v>232</v>
@@ -3655,7 +3652,7 @@
         <v>105</v>
       </c>
       <c r="G97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H97" t="s">
         <v>232</v>
@@ -3733,7 +3730,7 @@
         <v>108</v>
       </c>
       <c r="G100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H100" t="s">
         <v>232</v>
